--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H2">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I2">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J2">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>234.538651801622</v>
+        <v>235.101616</v>
       </c>
       <c r="N2">
-        <v>234.538651801622</v>
+        <v>470.203232</v>
       </c>
       <c r="O2">
-        <v>0.4253153856435704</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P2">
-        <v>0.4253153856435704</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q2">
-        <v>108775.4937121607</v>
+        <v>109386.6159147172</v>
       </c>
       <c r="R2">
-        <v>108775.4937121607</v>
+        <v>437546.4636588686</v>
       </c>
       <c r="S2">
-        <v>0.2404046474684285</v>
+        <v>0.232482890049215</v>
       </c>
       <c r="T2">
-        <v>0.2404046474684285</v>
+        <v>0.1529916326131533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H3">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I3">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J3">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>94.69438057492491</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N3">
-        <v>94.69438057492491</v>
+        <v>0.184044</v>
       </c>
       <c r="O3">
-        <v>0.1717199987427602</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P3">
-        <v>0.1717199987427602</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q3">
-        <v>43917.82727359169</v>
+        <v>28.543615426004</v>
       </c>
       <c r="R3">
-        <v>43917.82727359169</v>
+        <v>171.261692556024</v>
       </c>
       <c r="S3">
-        <v>0.09706276131667689</v>
+        <v>6.066466314182733E-05</v>
       </c>
       <c r="T3">
-        <v>0.09706276131667689</v>
+        <v>5.988302528863772E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H4">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I4">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J4">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>66.6246872012414</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N4">
-        <v>66.6246872012414</v>
+        <v>291.346801</v>
       </c>
       <c r="O4">
-        <v>0.1208180583997979</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P4">
-        <v>0.1208180583997979</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q4">
-        <v>30899.5263171509</v>
+        <v>45185.34178425005</v>
       </c>
       <c r="R4">
-        <v>30899.5263171509</v>
+        <v>271112.0507055003</v>
       </c>
       <c r="S4">
-        <v>0.06829102289227874</v>
+        <v>0.09603385896912695</v>
       </c>
       <c r="T4">
-        <v>0.06829102289227874</v>
+        <v>0.09479650437964128</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H5">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I5">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J5">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>154.092684022355</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N5">
-        <v>154.092684022355</v>
+        <v>206.736805</v>
       </c>
       <c r="O5">
-        <v>0.2794336405807186</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P5">
-        <v>0.2794336405807186</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q5">
-        <v>71465.86566098667</v>
+        <v>32063.07109343842</v>
       </c>
       <c r="R5">
-        <v>71465.86566098667</v>
+        <v>192378.4265606305</v>
       </c>
       <c r="S5">
-        <v>0.1579466629286816</v>
+        <v>0.06814467537296866</v>
       </c>
       <c r="T5">
-        <v>0.1579466629286816</v>
+        <v>0.06726666080886726</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>463.784936412807</v>
+        <v>465.273773</v>
       </c>
       <c r="H6">
-        <v>463.784936412807</v>
+        <v>930.547546</v>
       </c>
       <c r="I6">
-        <v>0.5652385396419595</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J6">
-        <v>0.5652385396419595</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49602819711562</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N6">
-        <v>1.49602819711562</v>
+        <v>478.929367</v>
       </c>
       <c r="O6">
-        <v>0.002712916633152936</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P6">
-        <v>0.002712916633152936</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q6">
-        <v>693.8353422710341</v>
+        <v>74277.75786153057</v>
       </c>
       <c r="R6">
-        <v>693.8353422710341</v>
+        <v>445666.5471691834</v>
       </c>
       <c r="S6">
-        <v>0.001533445035893747</v>
+        <v>0.1578649057713568</v>
       </c>
       <c r="T6">
-        <v>0.001533445035893747</v>
+        <v>0.1558308849814841</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>41.055213886722</v>
+        <v>465.273773</v>
       </c>
       <c r="H7">
-        <v>41.055213886722</v>
+        <v>930.547546</v>
       </c>
       <c r="I7">
-        <v>0.05003609932118146</v>
+        <v>0.5560786851775209</v>
       </c>
       <c r="J7">
-        <v>0.05003609932118146</v>
+        <v>0.4719272128544315</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>234.538651801622</v>
+        <v>1.508493</v>
       </c>
       <c r="N7">
-        <v>234.538651801622</v>
+        <v>3.016986</v>
       </c>
       <c r="O7">
-        <v>0.4253153856435704</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P7">
-        <v>0.4253153856435704</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q7">
-        <v>9629.034514419007</v>
+        <v>701.862229654089</v>
       </c>
       <c r="R7">
-        <v>9629.034514419007</v>
+        <v>2807.448918616356</v>
       </c>
       <c r="S7">
-        <v>0.02128112287888828</v>
+        <v>0.001491690351711621</v>
       </c>
       <c r="T7">
-        <v>0.02128112287888828</v>
+        <v>0.0009816470459969679</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H8">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J8">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.69438057492491</v>
+        <v>235.101616</v>
       </c>
       <c r="N8">
-        <v>94.69438057492491</v>
+        <v>470.203232</v>
       </c>
       <c r="O8">
-        <v>0.1717199987427602</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P8">
-        <v>0.1717199987427602</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q8">
-        <v>3887.698048374195</v>
+        <v>10816.98475794764</v>
       </c>
       <c r="R8">
-        <v>3887.698048374195</v>
+        <v>64901.90854768582</v>
       </c>
       <c r="S8">
-        <v>0.008592198912525906</v>
+        <v>0.02298968532042897</v>
       </c>
       <c r="T8">
-        <v>0.008592198912525906</v>
+        <v>0.02269347320370866</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H9">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J9">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>66.6246872012414</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N9">
-        <v>66.6246872012414</v>
+        <v>0.184044</v>
       </c>
       <c r="O9">
-        <v>0.1208180583997979</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P9">
-        <v>0.1208180583997979</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q9">
-        <v>2735.290783182916</v>
+        <v>2.822610887245334</v>
       </c>
       <c r="R9">
-        <v>2735.290783182916</v>
+        <v>25.403497985208</v>
       </c>
       <c r="S9">
-        <v>0.006045264369884591</v>
+        <v>5.998985626018311E-06</v>
       </c>
       <c r="T9">
-        <v>0.006045264369884591</v>
+        <v>8.882536950114707E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H10">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J10">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>154.092684022355</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N10">
-        <v>154.092684022355</v>
+        <v>291.346801</v>
       </c>
       <c r="O10">
-        <v>0.2794336405807186</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P10">
-        <v>0.2794336405807186</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q10">
-        <v>6326.308100916855</v>
+        <v>4468.272002709675</v>
       </c>
       <c r="R10">
-        <v>6326.308100916855</v>
+        <v>40214.44802438708</v>
       </c>
       <c r="S10">
-        <v>0.01398176939377616</v>
+        <v>0.00949656207964083</v>
       </c>
       <c r="T10">
-        <v>0.01398176939377616</v>
+        <v>0.01406130449881668</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.055213886722</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H11">
-        <v>41.055213886722</v>
+        <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05003609932118146</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J11">
-        <v>0.05003609932118146</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49602819711562</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N11">
-        <v>1.49602819711562</v>
+        <v>206.736805</v>
       </c>
       <c r="O11">
-        <v>0.002712916633152936</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P11">
-        <v>0.002712916633152936</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q11">
-        <v>61.41975761314888</v>
+        <v>3170.641567165001</v>
       </c>
       <c r="R11">
-        <v>61.41975761314888</v>
+        <v>28535.77410448501</v>
       </c>
       <c r="S11">
-        <v>0.0001357437661065255</v>
+        <v>0.006738666414357167</v>
       </c>
       <c r="T11">
-        <v>0.0001357437661065255</v>
+        <v>0.009977762433772136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387396348091175</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H12">
-        <v>0.387396348091175</v>
+        <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.0004721398408308401</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J12">
-        <v>0.0004721398408308401</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>234.538651801622</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N12">
-        <v>234.538651801622</v>
+        <v>478.929367</v>
       </c>
       <c r="O12">
-        <v>0.4253153856435704</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P12">
-        <v>0.4253153856435704</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q12">
-        <v>90.85941719417605</v>
+        <v>7345.152493510877</v>
       </c>
       <c r="R12">
-        <v>90.85941719417605</v>
+        <v>66106.37244159789</v>
       </c>
       <c r="S12">
-        <v>0.0002008083384806627</v>
+        <v>0.01561088863810311</v>
       </c>
       <c r="T12">
-        <v>0.0002008083384806627</v>
+        <v>0.02311462367082082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387396348091175</v>
+        <v>46.00982733333333</v>
       </c>
       <c r="H13">
-        <v>0.387396348091175</v>
+        <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.0004721398408308401</v>
+        <v>0.05498931118295542</v>
       </c>
       <c r="J13">
-        <v>0.0004721398408308401</v>
+        <v>0.07000165548983235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.69438057492491</v>
+        <v>1.508493</v>
       </c>
       <c r="N13">
-        <v>94.69438057492491</v>
+        <v>3.016986</v>
       </c>
       <c r="O13">
-        <v>0.1717199987427602</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P13">
-        <v>0.1717199987427602</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q13">
-        <v>36.68425721948181</v>
+        <v>69.40550246354201</v>
       </c>
       <c r="R13">
-        <v>36.68425721948181</v>
+        <v>416.433014781252</v>
       </c>
       <c r="S13">
-        <v>8.107585287387885E-05</v>
+        <v>0.0001475097447993291</v>
       </c>
       <c r="T13">
-        <v>8.107585287387885E-05</v>
+        <v>0.0001456091457639411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H14">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I14">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J14">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.6246872012414</v>
+        <v>235.101616</v>
       </c>
       <c r="N14">
-        <v>66.6246872012414</v>
+        <v>470.203232</v>
       </c>
       <c r="O14">
-        <v>0.1208180583997979</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P14">
-        <v>0.1208180583997979</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q14">
-        <v>25.81016051447777</v>
+        <v>103.2045155556533</v>
       </c>
       <c r="R14">
-        <v>25.81016051447777</v>
+        <v>619.2270933339199</v>
       </c>
       <c r="S14">
-        <v>5.704301886237172E-05</v>
+        <v>0.0002193438734882677</v>
       </c>
       <c r="T14">
-        <v>5.704301886237172E-05</v>
+        <v>0.0002165177228842029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H15">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I15">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J15">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>154.092684022355</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N15">
-        <v>154.092684022355</v>
+        <v>0.184044</v>
       </c>
       <c r="O15">
-        <v>0.2794336405807186</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P15">
-        <v>0.2794336405807186</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q15">
-        <v>59.69494305782768</v>
+        <v>0.02693044279333334</v>
       </c>
       <c r="R15">
-        <v>59.69494305782768</v>
+        <v>0.24237398514</v>
       </c>
       <c r="S15">
-        <v>0.0001319317545865627</v>
+        <v>5.723613550473531E-08</v>
       </c>
       <c r="T15">
-        <v>0.0001319317545865627</v>
+        <v>8.474800911300464E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387396348091175</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H16">
-        <v>0.387396348091175</v>
+        <v>1.316935</v>
       </c>
       <c r="I16">
-        <v>0.0004721398408308401</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J16">
-        <v>0.0004721398408308401</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49602819711562</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N16">
-        <v>1.49602819711562</v>
+        <v>291.346801</v>
       </c>
       <c r="O16">
-        <v>0.002712916633152936</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P16">
-        <v>0.002712916633152936</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q16">
-        <v>0.5795558602040157</v>
+        <v>42.63164437499277</v>
       </c>
       <c r="R16">
-        <v>0.5795558602040157</v>
+        <v>383.6847993749349</v>
       </c>
       <c r="S16">
-        <v>1.280876027364166E-06</v>
+        <v>9.060640379967372E-05</v>
       </c>
       <c r="T16">
-        <v>1.280876027364166E-06</v>
+        <v>0.0001341584694214033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8383444300946979</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H17">
-        <v>0.8383444300946979</v>
+        <v>1.316935</v>
       </c>
       <c r="I17">
-        <v>0.001021733446215077</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J17">
-        <v>0.001021733446215077</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>234.538651801622</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N17">
-        <v>234.538651801622</v>
+        <v>206.736805</v>
       </c>
       <c r="O17">
-        <v>0.4253153856435704</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P17">
-        <v>0.4253153856435704</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q17">
-        <v>196.6241723798096</v>
+        <v>30.25099269918611</v>
       </c>
       <c r="R17">
-        <v>196.6241723798096</v>
+        <v>272.258934292675</v>
       </c>
       <c r="S17">
-        <v>0.0004345589547018998</v>
+        <v>6.429340692875639E-05</v>
       </c>
       <c r="T17">
-        <v>0.0004345589547018998</v>
+        <v>9.519752143038329E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8383444300946979</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H18">
-        <v>0.8383444300946979</v>
+        <v>1.316935</v>
       </c>
       <c r="I18">
-        <v>0.001021733446215077</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J18">
-        <v>0.001021733446215077</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>94.69438057492491</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N18">
-        <v>94.69438057492491</v>
+        <v>478.929367</v>
       </c>
       <c r="O18">
-        <v>0.1717199987427602</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P18">
-        <v>0.1717199987427602</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q18">
-        <v>79.38650651625585</v>
+        <v>70.07987177001611</v>
       </c>
       <c r="R18">
-        <v>79.38650651625585</v>
+        <v>630.718845930145</v>
       </c>
       <c r="S18">
-        <v>0.0001754520660994891</v>
+        <v>0.0001489430035578943</v>
       </c>
       <c r="T18">
-        <v>0.0001754520660994891</v>
+        <v>0.0002205359064082586</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8383444300946979</v>
+        <v>0.4389783333333333</v>
       </c>
       <c r="H19">
-        <v>0.8383444300946979</v>
+        <v>1.316935</v>
       </c>
       <c r="I19">
-        <v>0.001021733446215077</v>
+        <v>0.0005246513098029694</v>
       </c>
       <c r="J19">
-        <v>0.001021733446215077</v>
+        <v>0.0006678836204898773</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>66.6246872012414</v>
+        <v>1.508493</v>
       </c>
       <c r="N19">
-        <v>66.6246872012414</v>
+        <v>3.016986</v>
       </c>
       <c r="O19">
-        <v>0.1208180583997979</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P19">
-        <v>0.1208180583997979</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q19">
-        <v>55.85443542196224</v>
+        <v>0.6621957429849999</v>
       </c>
       <c r="R19">
-        <v>55.85443542196224</v>
+        <v>3.97317445791</v>
       </c>
       <c r="S19">
-        <v>0.00012344385117384</v>
+        <v>1.407385892872542E-06</v>
       </c>
       <c r="T19">
-        <v>0.00012344385117384</v>
+        <v>1.389252336516308E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H20">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I20">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J20">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>154.092684022355</v>
+        <v>235.101616</v>
       </c>
       <c r="N20">
-        <v>154.092684022355</v>
+        <v>470.203232</v>
       </c>
       <c r="O20">
-        <v>0.2794336405807186</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P20">
-        <v>0.2794336405807186</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q20">
-        <v>129.1827433684836</v>
+        <v>211.4625403472266</v>
       </c>
       <c r="R20">
-        <v>129.1827433684836</v>
+        <v>1268.77524208336</v>
       </c>
       <c r="S20">
-        <v>0.000285506696578963</v>
+        <v>0.0004494281325550879</v>
       </c>
       <c r="T20">
-        <v>0.000285506696578963</v>
+        <v>0.0004436374461406244</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8383444300946979</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H21">
-        <v>0.8383444300946979</v>
+        <v>2.698355</v>
       </c>
       <c r="I21">
-        <v>0.001021733446215077</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J21">
-        <v>0.001021733446215077</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.49602819711562</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N21">
-        <v>1.49602819711562</v>
+        <v>0.184044</v>
       </c>
       <c r="O21">
-        <v>0.002712916633152936</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P21">
-        <v>0.002712916633152936</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q21">
-        <v>1.254186906316493</v>
+        <v>0.05517956084666667</v>
       </c>
       <c r="R21">
-        <v>1.254186906316493</v>
+        <v>0.49661604762</v>
       </c>
       <c r="S21">
-        <v>2.771877660885555E-06</v>
+        <v>1.172748939164652E-07</v>
       </c>
       <c r="T21">
-        <v>2.771877660885555E-06</v>
+        <v>1.736457867169767E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>241.730676096981</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H22">
-        <v>241.730676096981</v>
+        <v>2.698355</v>
       </c>
       <c r="I22">
-        <v>0.2946095994418071</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J22">
-        <v>0.2946095994418071</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>234.538651801622</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N22">
-        <v>234.538651801622</v>
+        <v>291.346801</v>
       </c>
       <c r="O22">
-        <v>0.4253153856435704</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P22">
-        <v>0.4253153856435704</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q22">
-        <v>56695.1868708805</v>
+        <v>87.35078857915055</v>
       </c>
       <c r="R22">
-        <v>56695.1868708805</v>
+        <v>786.1570972123549</v>
       </c>
       <c r="S22">
-        <v>0.12530199540089</v>
+        <v>0.0001856494380701163</v>
       </c>
       <c r="T22">
-        <v>0.12530199540089</v>
+        <v>0.0002748861384621038</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>241.730676096981</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H23">
-        <v>241.730676096981</v>
+        <v>2.698355</v>
       </c>
       <c r="I23">
-        <v>0.2946095994418071</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J23">
-        <v>0.2946095994418071</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.69438057492491</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N23">
-        <v>94.69438057492491</v>
+        <v>206.736805</v>
       </c>
       <c r="O23">
-        <v>0.1717199987427602</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P23">
-        <v>0.1717199987427602</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q23">
-        <v>22890.53663896142</v>
+        <v>61.98325460619722</v>
       </c>
       <c r="R23">
-        <v>22890.53663896142</v>
+        <v>557.849291455775</v>
       </c>
       <c r="S23">
-        <v>0.05059036004575221</v>
+        <v>0.000131735002906935</v>
       </c>
       <c r="T23">
-        <v>0.05059036004575221</v>
+        <v>0.0001950564818607463</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>241.730676096981</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H24">
-        <v>241.730676096981</v>
+        <v>2.698355</v>
       </c>
       <c r="I24">
-        <v>0.2946095994418071</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J24">
-        <v>0.2946095994418071</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>66.6246872012414</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N24">
-        <v>66.6246872012414</v>
+        <v>478.929367</v>
       </c>
       <c r="O24">
-        <v>0.1208180583997979</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P24">
-        <v>0.1208180583997979</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q24">
-        <v>16105.23068190596</v>
+        <v>143.5912724545872</v>
       </c>
       <c r="R24">
-        <v>16105.23068190596</v>
+        <v>1292.321452091285</v>
       </c>
       <c r="S24">
-        <v>0.03559415979050132</v>
+        <v>0.0003051791457934234</v>
       </c>
       <c r="T24">
-        <v>0.03559415979050132</v>
+        <v>0.0004518705674435387</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>241.730676096981</v>
+        <v>0.8994516666666666</v>
       </c>
       <c r="H25">
-        <v>241.730676096981</v>
+        <v>2.698355</v>
       </c>
       <c r="I25">
-        <v>0.2946095994418071</v>
+        <v>0.001074992680020952</v>
       </c>
       <c r="J25">
-        <v>0.2946095994418071</v>
+        <v>0.00136847081045531</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>154.092684022355</v>
+        <v>1.508493</v>
       </c>
       <c r="N25">
-        <v>154.092684022355</v>
+        <v>3.016986</v>
       </c>
       <c r="O25">
-        <v>0.2794336405807186</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P25">
-        <v>0.2794336405807186</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q25">
-        <v>37248.92869032233</v>
+        <v>1.356816543005</v>
       </c>
       <c r="R25">
-        <v>37248.92869032233</v>
+        <v>8.14089925803</v>
       </c>
       <c r="S25">
-        <v>0.08232383292205142</v>
+        <v>2.883685801472425E-06</v>
       </c>
       <c r="T25">
-        <v>0.08232383292205142</v>
+        <v>2.846530761579321E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>241.730676096981</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H26">
-        <v>241.730676096981</v>
+        <v>753.135025</v>
       </c>
       <c r="I26">
-        <v>0.2946095994418071</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J26">
-        <v>0.2946095994418071</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.49602819711562</v>
+        <v>235.101616</v>
       </c>
       <c r="N26">
-        <v>1.49602819711562</v>
+        <v>470.203232</v>
       </c>
       <c r="O26">
-        <v>0.002712916633152936</v>
+        <v>0.4180755282411119</v>
       </c>
       <c r="P26">
-        <v>0.002712916633152936</v>
+        <v>0.3241848074150884</v>
       </c>
       <c r="Q26">
-        <v>361.6359075489064</v>
+        <v>59021.08714790014</v>
       </c>
       <c r="R26">
-        <v>361.6359075489064</v>
+        <v>354126.5228874008</v>
       </c>
       <c r="S26">
-        <v>0.0007992512826122027</v>
+        <v>0.1254394132156738</v>
       </c>
       <c r="T26">
-        <v>0.0007992512826122027</v>
+        <v>0.1238231808231516</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.71531212246509</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H27">
-        <v>72.71531212246509</v>
+        <v>753.135025</v>
       </c>
       <c r="I27">
-        <v>0.08862188830800599</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J27">
-        <v>0.08862188830800599</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>234.538651801622</v>
+        <v>0.06134800000000001</v>
       </c>
       <c r="N27">
-        <v>234.538651801622</v>
+        <v>0.184044</v>
       </c>
       <c r="O27">
-        <v>0.4253153856435704</v>
+        <v>0.0001090936674230931</v>
       </c>
       <c r="P27">
-        <v>0.4253153856435704</v>
+        <v>0.0001268903840624867</v>
       </c>
       <c r="Q27">
-        <v>17054.5512705371</v>
+        <v>15.40110917123334</v>
       </c>
       <c r="R27">
-        <v>17054.5512705371</v>
+        <v>138.6099825411</v>
       </c>
       <c r="S27">
-        <v>0.03769225260218099</v>
+        <v>3.273247225129732E-05</v>
       </c>
       <c r="T27">
-        <v>0.03769225260218099</v>
+        <v>4.846609283071905E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.71531212246509</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H28">
-        <v>72.71531212246509</v>
+        <v>753.135025</v>
       </c>
       <c r="I28">
-        <v>0.08862188830800599</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J28">
-        <v>0.08862188830800599</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>94.69438057492491</v>
+        <v>97.11560033333332</v>
       </c>
       <c r="N28">
-        <v>94.69438057492491</v>
+        <v>291.346801</v>
       </c>
       <c r="O28">
-        <v>0.1717199987427602</v>
+        <v>0.1726983276448897</v>
       </c>
       <c r="P28">
-        <v>0.1717199987427602</v>
+        <v>0.2008710279838891</v>
       </c>
       <c r="Q28">
-        <v>6885.73143974916</v>
+        <v>24380.38669497833</v>
       </c>
       <c r="R28">
-        <v>6885.73143974916</v>
+        <v>219423.480254805</v>
       </c>
       <c r="S28">
-        <v>0.01521815054883182</v>
+        <v>0.0518164193303598</v>
       </c>
       <c r="T28">
-        <v>0.01521815054883182</v>
+        <v>0.07672318088717386</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.71531212246509</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H29">
-        <v>72.71531212246509</v>
+        <v>753.135025</v>
       </c>
       <c r="I29">
-        <v>0.08862188830800599</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J29">
-        <v>0.08862188830800599</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>66.6246872012414</v>
+        <v>68.91226833333333</v>
       </c>
       <c r="N29">
-        <v>66.6246872012414</v>
+        <v>206.736805</v>
       </c>
       <c r="O29">
-        <v>0.1208180583997979</v>
+        <v>0.1225450231943603</v>
       </c>
       <c r="P29">
-        <v>0.1208180583997979</v>
+        <v>0.1425360923817208</v>
       </c>
       <c r="Q29">
-        <v>4844.634924899874</v>
+        <v>17300.08097801057</v>
       </c>
       <c r="R29">
-        <v>4844.634924899874</v>
+        <v>155700.7288020951</v>
       </c>
       <c r="S29">
-        <v>0.01070712447709704</v>
+        <v>0.03676841805755343</v>
       </c>
       <c r="T29">
-        <v>0.01070712447709704</v>
+        <v>0.05444200942522582</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.71531212246509</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H30">
-        <v>72.71531212246509</v>
+        <v>753.135025</v>
       </c>
       <c r="I30">
-        <v>0.08862188830800599</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J30">
-        <v>0.08862188830800599</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>154.092684022355</v>
+        <v>159.6431223333333</v>
       </c>
       <c r="N30">
-        <v>154.092684022355</v>
+        <v>478.929367</v>
       </c>
       <c r="O30">
-        <v>0.2794336405807186</v>
+        <v>0.2838895105662259</v>
       </c>
       <c r="P30">
-        <v>0.2794336405807186</v>
+        <v>0.3302011003750931</v>
       </c>
       <c r="Q30">
-        <v>11204.89761447393</v>
+        <v>40077.60897653102</v>
       </c>
       <c r="R30">
-        <v>11204.89761447393</v>
+        <v>360698.4807887792</v>
       </c>
       <c r="S30">
-        <v>0.02476393688504394</v>
+        <v>0.08517823029090266</v>
       </c>
       <c r="T30">
-        <v>0.02476393688504394</v>
+        <v>0.1261211186476034</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.71531212246509</v>
+        <v>251.0450083333334</v>
       </c>
       <c r="H31">
-        <v>72.71531212246509</v>
+        <v>753.135025</v>
       </c>
       <c r="I31">
-        <v>0.08862188830800599</v>
+        <v>0.3000400758767458</v>
       </c>
       <c r="J31">
-        <v>0.08862188830800599</v>
+        <v>0.381952448081898</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.49602819711562</v>
+        <v>1.508493</v>
       </c>
       <c r="N31">
-        <v>1.49602819711562</v>
+        <v>3.016986</v>
       </c>
       <c r="O31">
-        <v>0.002712916633152936</v>
+        <v>0.002682516685989175</v>
       </c>
       <c r="P31">
-        <v>0.002712916633152936</v>
+        <v>0.00208008146014619</v>
       </c>
       <c r="Q31">
-        <v>108.784157297271</v>
+        <v>378.699637755775</v>
       </c>
       <c r="R31">
-        <v>108.784157297271</v>
+        <v>2272.19782653465</v>
       </c>
       <c r="S31">
-        <v>0.0002404237948522112</v>
+        <v>0.0008048625100048289</v>
       </c>
       <c r="T31">
-        <v>0.0002404237948522112</v>
+        <v>0.0007944922059126064</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H32">
+        <v>146.075767</v>
+      </c>
+      <c r="I32">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J32">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>235.101616</v>
+      </c>
+      <c r="N32">
+        <v>470.203232</v>
+      </c>
+      <c r="O32">
+        <v>0.4180755282411119</v>
+      </c>
+      <c r="P32">
+        <v>0.3241848074150884</v>
+      </c>
+      <c r="Q32">
+        <v>17171.32444006973</v>
+      </c>
+      <c r="R32">
+        <v>68685.29776027893</v>
+      </c>
+      <c r="S32">
+        <v>0.03649476764975075</v>
+      </c>
+      <c r="T32">
+        <v>0.02401636560604994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H33">
+        <v>146.075767</v>
+      </c>
+      <c r="I33">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J33">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.06134800000000001</v>
+      </c>
+      <c r="N33">
+        <v>0.184044</v>
+      </c>
+      <c r="O33">
+        <v>0.0001090936674230931</v>
+      </c>
+      <c r="P33">
+        <v>0.0001268903840624867</v>
+      </c>
+      <c r="Q33">
+        <v>4.480728076958</v>
+      </c>
+      <c r="R33">
+        <v>26.884368461748</v>
+      </c>
+      <c r="S33">
+        <v>9.523035374528898E-06</v>
+      </c>
+      <c r="T33">
+        <v>9.400335197185239E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H34">
+        <v>146.075767</v>
+      </c>
+      <c r="I34">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J34">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>97.11560033333332</v>
+      </c>
+      <c r="N34">
+        <v>291.346801</v>
+      </c>
+      <c r="O34">
+        <v>0.1726983276448897</v>
+      </c>
+      <c r="P34">
+        <v>0.2008710279838891</v>
+      </c>
+      <c r="Q34">
+        <v>7093.11790317856</v>
+      </c>
+      <c r="R34">
+        <v>42558.70741907136</v>
+      </c>
+      <c r="S34">
+        <v>0.01507523142389228</v>
+      </c>
+      <c r="T34">
+        <v>0.01488099361037373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H35">
+        <v>146.075767</v>
+      </c>
+      <c r="I35">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J35">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>68.91226833333333</v>
+      </c>
+      <c r="N35">
+        <v>206.736805</v>
+      </c>
+      <c r="O35">
+        <v>0.1225450231943603</v>
+      </c>
+      <c r="P35">
+        <v>0.1425360923817208</v>
+      </c>
+      <c r="Q35">
+        <v>5033.206226250739</v>
+      </c>
+      <c r="R35">
+        <v>30199.23735750443</v>
+      </c>
+      <c r="S35">
+        <v>0.01069723493964532</v>
+      </c>
+      <c r="T35">
+        <v>0.01055940571056444</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H36">
+        <v>146.075767</v>
+      </c>
+      <c r="I36">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J36">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>159.6431223333333</v>
+      </c>
+      <c r="N36">
+        <v>478.929367</v>
+      </c>
+      <c r="O36">
+        <v>0.2838895105662259</v>
+      </c>
+      <c r="P36">
+        <v>0.3302011003750931</v>
+      </c>
+      <c r="Q36">
+        <v>11659.99577055825</v>
+      </c>
+      <c r="R36">
+        <v>69959.97462334948</v>
+      </c>
+      <c r="S36">
+        <v>0.02478136371651199</v>
+      </c>
+      <c r="T36">
+        <v>0.02446206660133309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>73.03788349999999</v>
+      </c>
+      <c r="H37">
+        <v>146.075767</v>
+      </c>
+      <c r="I37">
+        <v>0.08729228377295392</v>
+      </c>
+      <c r="J37">
+        <v>0.07408232914289296</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.508493</v>
+      </c>
+      <c r="N37">
+        <v>3.016986</v>
+      </c>
+      <c r="O37">
+        <v>0.002682516685989175</v>
+      </c>
+      <c r="P37">
+        <v>0.00208008146014619</v>
+      </c>
+      <c r="Q37">
+        <v>110.1771359945655</v>
+      </c>
+      <c r="R37">
+        <v>440.708543978262</v>
+      </c>
+      <c r="S37">
+        <v>0.000234163007779051</v>
+      </c>
+      <c r="T37">
+        <v>0.0001540972793745795</v>
       </c>
     </row>
   </sheetData>
